--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ebi3-Il6st.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ebi3-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Il6st</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>7.63043832991382</v>
+        <v>0.1351216666666667</v>
       </c>
       <c r="H2">
-        <v>7.63043832991382</v>
+        <v>0.405365</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01567245347423418</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01567245347423418</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.0882008104475</v>
+        <v>44.017783</v>
       </c>
       <c r="N2">
-        <v>43.0882008104475</v>
+        <v>132.053349</v>
       </c>
       <c r="O2">
-        <v>0.2545031812269119</v>
+        <v>0.253483683026081</v>
       </c>
       <c r="P2">
-        <v>0.2545031812269119</v>
+        <v>0.253483683026081</v>
       </c>
       <c r="Q2">
-        <v>328.7818590310623</v>
+        <v>5.947756201931667</v>
       </c>
       <c r="R2">
-        <v>328.7818590310623</v>
+        <v>53.529805817385</v>
       </c>
       <c r="S2">
-        <v>0.2545031812269119</v>
+        <v>0.003972711228703779</v>
       </c>
       <c r="T2">
-        <v>0.2545031812269119</v>
+        <v>0.003972711228703778</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -596,49 +596,49 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>7.63043832991382</v>
+        <v>0.1351216666666667</v>
       </c>
       <c r="H3">
-        <v>7.63043832991382</v>
+        <v>0.405365</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01567245347423418</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01567245347423418</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>99.6651130769268</v>
+        <v>99.76728333333334</v>
       </c>
       <c r="N3">
-        <v>99.6651130769268</v>
+        <v>299.30185</v>
       </c>
       <c r="O3">
-        <v>0.588678289144706</v>
+        <v>0.5745264004968147</v>
       </c>
       <c r="P3">
-        <v>0.588678289144706</v>
+        <v>0.5745264004968147</v>
       </c>
       <c r="Q3">
-        <v>760.4884989773773</v>
+        <v>13.48072160280556</v>
       </c>
       <c r="R3">
-        <v>760.4884989773773</v>
+        <v>121.32649442525</v>
       </c>
       <c r="S3">
-        <v>0.588678289144706</v>
+        <v>0.009004238281505561</v>
       </c>
       <c r="T3">
-        <v>0.588678289144706</v>
+        <v>0.009004238281505561</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>7.63043832991382</v>
+        <v>0.1351216666666667</v>
       </c>
       <c r="H4">
-        <v>7.63043832991382</v>
+        <v>0.405365</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.01567245347423418</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01567245347423418</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.807486038585729</v>
+        <v>10.852095</v>
       </c>
       <c r="N4">
-        <v>9.807486038585729</v>
+        <v>32.556285</v>
       </c>
       <c r="O4">
-        <v>0.05792853611221993</v>
+        <v>0.06249358376701795</v>
       </c>
       <c r="P4">
-        <v>0.05792853611221993</v>
+        <v>0.06249358376701795</v>
       </c>
       <c r="Q4">
-        <v>74.8354173889192</v>
+        <v>1.466353163225</v>
       </c>
       <c r="R4">
-        <v>74.8354173889192</v>
+        <v>13.197178469025</v>
       </c>
       <c r="S4">
-        <v>0.05792853611221993</v>
+        <v>0.0009794277840267452</v>
       </c>
       <c r="T4">
-        <v>0.05792853611221993</v>
+        <v>0.0009794277840267452</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -720,49 +720,297 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>7.63043832991382</v>
+        <v>0.1351216666666667</v>
       </c>
       <c r="H5">
-        <v>7.63043832991382</v>
+        <v>0.405365</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.01567245347423418</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.01567245347423418</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.7423915026398</v>
+        <v>19.01418566666667</v>
       </c>
       <c r="N5">
-        <v>16.7423915026398</v>
+        <v>57.042557</v>
       </c>
       <c r="O5">
-        <v>0.09888999351616218</v>
+        <v>0.1094963327100864</v>
       </c>
       <c r="P5">
-        <v>0.09888999351616218</v>
+        <v>0.1094963327100864</v>
       </c>
       <c r="Q5">
-        <v>127.7517858561662</v>
+        <v>2.569228457589444</v>
       </c>
       <c r="R5">
-        <v>127.7517858561662</v>
+        <v>23.123056118305</v>
       </c>
       <c r="S5">
-        <v>0.09888999351616218</v>
+        <v>0.001716076179998096</v>
       </c>
       <c r="T5">
-        <v>0.09888999351616218</v>
+        <v>0.001716076179998096</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>8.486480999999999</v>
+      </c>
+      <c r="H6">
+        <v>25.459443</v>
+      </c>
+      <c r="I6">
+        <v>0.9843275465257658</v>
+      </c>
+      <c r="J6">
+        <v>0.9843275465257658</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>44.017783</v>
+      </c>
+      <c r="N6">
+        <v>132.053349</v>
+      </c>
+      <c r="O6">
+        <v>0.253483683026081</v>
+      </c>
+      <c r="P6">
+        <v>0.253483683026081</v>
+      </c>
+      <c r="Q6">
+        <v>373.556079091623</v>
+      </c>
+      <c r="R6">
+        <v>3362.004711824607</v>
+      </c>
+      <c r="S6">
+        <v>0.2495109717973773</v>
+      </c>
+      <c r="T6">
+        <v>0.2495109717973772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>8.486480999999999</v>
+      </c>
+      <c r="H7">
+        <v>25.459443</v>
+      </c>
+      <c r="I7">
+        <v>0.9843275465257658</v>
+      </c>
+      <c r="J7">
+        <v>0.9843275465257658</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>99.76728333333334</v>
+      </c>
+      <c r="N7">
+        <v>299.30185</v>
+      </c>
+      <c r="O7">
+        <v>0.5745264004968147</v>
+      </c>
+      <c r="P7">
+        <v>0.5745264004968147</v>
+      </c>
+      <c r="Q7">
+        <v>846.67315442995</v>
+      </c>
+      <c r="R7">
+        <v>7620.05838986955</v>
+      </c>
+      <c r="S7">
+        <v>0.5655221622153092</v>
+      </c>
+      <c r="T7">
+        <v>0.5655221622153092</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>8.486480999999999</v>
+      </c>
+      <c r="H8">
+        <v>25.459443</v>
+      </c>
+      <c r="I8">
+        <v>0.9843275465257658</v>
+      </c>
+      <c r="J8">
+        <v>0.9843275465257658</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>10.852095</v>
+      </c>
+      <c r="N8">
+        <v>32.556285</v>
+      </c>
+      <c r="O8">
+        <v>0.06249358376701795</v>
+      </c>
+      <c r="P8">
+        <v>0.06249358376701795</v>
+      </c>
+      <c r="Q8">
+        <v>92.09609802769499</v>
+      </c>
+      <c r="R8">
+        <v>828.8648822492551</v>
+      </c>
+      <c r="S8">
+        <v>0.0615141559829912</v>
+      </c>
+      <c r="T8">
+        <v>0.06151415598299121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>8.486480999999999</v>
+      </c>
+      <c r="H9">
+        <v>25.459443</v>
+      </c>
+      <c r="I9">
+        <v>0.9843275465257658</v>
+      </c>
+      <c r="J9">
+        <v>0.9843275465257658</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>19.01418566666667</v>
+      </c>
+      <c r="N9">
+        <v>57.042557</v>
+      </c>
+      <c r="O9">
+        <v>0.1094963327100864</v>
+      </c>
+      <c r="P9">
+        <v>0.1094963327100864</v>
+      </c>
+      <c r="Q9">
+        <v>161.363525390639</v>
+      </c>
+      <c r="R9">
+        <v>1452.271728515751</v>
+      </c>
+      <c r="S9">
+        <v>0.1077802565300883</v>
+      </c>
+      <c r="T9">
+        <v>0.1077802565300883</v>
       </c>
     </row>
   </sheetData>
